--- a/MVP_02/SHOPPING_LISTS/FARNELL.xlsx
+++ b/MVP_02/SHOPPING_LISTS/FARNELL.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -55,6 +55,15 @@
     <t>20-019479</t>
   </si>
   <si>
+    <t>20-019477</t>
+  </si>
+  <si>
+    <t>20-019512</t>
+  </si>
+  <si>
+    <t>20-019513</t>
+  </si>
+  <si>
     <t>AWG20 CABLES - RED</t>
   </si>
   <si>
@@ -64,6 +73,15 @@
     <t>RIBBON CABLE</t>
   </si>
   <si>
+    <t>SOLID STATE RELAY</t>
+  </si>
+  <si>
+    <t>DC POWER CONNECTOR</t>
+  </si>
+  <si>
+    <t>AC/DC POWER SUPPLY - 120W, 5A</t>
+  </si>
+  <si>
     <t>FARNELL</t>
   </si>
   <si>
@@ -74,6 +92,15 @@
   </si>
   <si>
     <t>PSG-JRBN40-MM</t>
+  </si>
+  <si>
+    <t>OPTO 22</t>
+  </si>
+  <si>
+    <t>SWITCHCRAFT</t>
+  </si>
+  <si>
+    <t>MEAN WELL</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -448,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -458,13 +485,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,22 +526,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -522,22 +549,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -545,25 +572,97 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="1">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7229136</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="1">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1871166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="1">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2815847</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
